--- a/biology/Zoologie/Cilix_glaucata/Cilix_glaucata.xlsx
+++ b/biology/Zoologie/Cilix_glaucata/Cilix_glaucata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Petite Épine
 Cilix glaucata, la Petite Épine, est une espèce de Lépidoptères de la famille des Drepanidae et du genre Cilix. Répandu dans toute l'Europe, c'est un papillon nocturne dont la chenille parasite des arbustes de la famille des Rosaceae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			♂ MHNT
@@ -547,11 +561,13 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chenille, en liberté sur les feuilles, se développe sur Crataegus monogyna, Malus domestica, Malus sylvestris, Prunus domestica, Prunus spinosa, Rubus ulmifolius, Pyrus communis et Sorbus aucuparia[1].
-Au repos, l'adulte cache sous les ailes ses antennes, son corps et ses pattes, ressemblant alors à une fiente. Son camouflage est suffisamment efficace pour que ce papillon subsiste près d’un piège lumineux bien après que les espèces plus voyantes ont été mangées par les oiseaux. La période de vol s'étend de mai à août en deux générations[2].
-La confusion est possible avec Cilix hispanica dans le sud de l'Europe. L'examen des genitalia est recommandé, surtout sur les exemplaires à l'ombre médiane peu marquée[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille, en liberté sur les feuilles, se développe sur Crataegus monogyna, Malus domestica, Malus sylvestris, Prunus domestica, Prunus spinosa, Rubus ulmifolius, Pyrus communis et Sorbus aucuparia.
+Au repos, l'adulte cache sous les ailes ses antennes, son corps et ses pattes, ressemblant alors à une fiente. Son camouflage est suffisamment efficace pour que ce papillon subsiste près d’un piège lumineux bien après que les espèces plus voyantes ont été mangées par les oiseaux. La période de vol s'étend de mai à août en deux générations.
+La confusion est possible avec Cilix hispanica dans le sud de l'Europe. L'examen des genitalia est recommandé, surtout sur les exemplaires à l'ombre médiane peu marquée.
 </t>
         </is>
       </c>
@@ -580,9 +596,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est répandue dans toute l'Europe[4]. Elle fréquente les biotopes ouverts, variés, des steppes buissonnantes aux parcs et jardins[5], les haies, les jardins et autres taillis et bois clairs[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est répandue dans toute l'Europe. Elle fréquente les biotopes ouverts, variés, des steppes buissonnantes aux parcs et jardins, les haies, les jardins et autres taillis et bois clairs.
 </t>
         </is>
       </c>
@@ -611,11 +629,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Cilix glaucata (Scopoli, 1763). L'espèce a été initialement classée dans le genre Phalaena sous le protonyme Phalaena glaucata, par l'entomologiste autrichien Giovanni Antonio Scopoli, en 1763[4].
-Ce taxon porte en français le nom vernaculaire ou normalisé « Petite Épine »[4],[6],[7].
-Cilix glaucata a pour synonymes[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Cilix glaucata (Scopoli, 1763). L'espèce a été initialement classée dans le genre Phalaena sous le protonyme Phalaena glaucata, par l'entomologiste autrichien Giovanni Antonio Scopoli, en 1763.
+Ce taxon porte en français le nom vernaculaire ou normalisé « Petite Épine ».
+Cilix glaucata a pour synonymes :
 Attacus ruffa Linnaeus, 1767
 Bombyces spinula Schiffermüller, 1776
 Bombyx compressa Fabricius, 1777
